--- a/libertadores/datasets_liberta/confrontos_fase_3_libertadores.xlsx
+++ b/libertadores/datasets_liberta/confrontos_fase_3_libertadores.xlsx
@@ -40,16 +40,16 @@
     <t>Visitante_ID_Time</t>
   </si>
   <si>
-    <t>Jogo 1</t>
-  </si>
-  <si>
-    <t>Jogo 2</t>
-  </si>
-  <si>
-    <t>Jogo 3</t>
-  </si>
-  <si>
-    <t>Jogo 4</t>
+    <t>Jogo 1 (JG1)</t>
+  </si>
+  <si>
+    <t>Jogo 2 (JG2)</t>
+  </si>
+  <si>
+    <t>Jogo 3 (JG3)</t>
+  </si>
+  <si>
+    <t>Jogo 4 (JG4)</t>
   </si>
   <si>
     <t>1_1</t>
